--- a/testing_results/inference_time_tai20x20.xlsx
+++ b/testing_results/inference_time_tai20x20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4.531366133689881</v>
+        <v>4.996091938018798</v>
       </c>
       <c r="B2" t="n">
-        <v>4.525076150894165</v>
+        <v>4.838998746871948</v>
       </c>
       <c r="C2" t="n">
-        <v>4.566060209274292</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.584160161018372</v>
-      </c>
-      <c r="E2" t="n">
-        <v>4.545065307617188</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.543259310722351</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.521695470809936</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.510562086105347</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.554345083236695</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.534265685081482</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.557715082168579</v>
-      </c>
-      <c r="L2" t="n">
-        <v>4.529916310310364</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4.437347173690796</v>
-      </c>
-      <c r="N2" t="n">
-        <v>85.80619635581971</v>
+        <v>88.53677344322205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.0589674949646</v>
+        <v>10.400856757164</v>
       </c>
       <c r="B3" t="n">
-        <v>9.007622408866883</v>
+        <v>9.867770671844482</v>
       </c>
       <c r="C3" t="n">
-        <v>9.141311764717102</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.179756879806519</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.140192103385925</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.092869663238526</v>
-      </c>
-      <c r="G3" t="n">
-        <v>9.147013640403747</v>
-      </c>
-      <c r="H3" t="n">
-        <v>9.058010673522949</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9.175255060195923</v>
-      </c>
-      <c r="J3" t="n">
-        <v>9.038922953605653</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9.128485655784607</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9.086020612716675</v>
-      </c>
-      <c r="M3" t="n">
-        <v>8.968863844871521</v>
-      </c>
-      <c r="N3" t="n">
-        <v>166.8294932126999</v>
+        <v>172.4377537250519</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18.20430951118469</v>
+        <v>19.95679137706757</v>
       </c>
       <c r="B4" t="n">
-        <v>18.10895898342132</v>
+        <v>19.38061728477478</v>
       </c>
       <c r="C4" t="n">
-        <v>18.33948621749878</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.39272501468658</v>
-      </c>
-      <c r="E4" t="n">
-        <v>18.29214496612549</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18.18860738277435</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18.2815634727478</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18.17822561264038</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18.34379153251648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18.13173871040344</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18.23839673995972</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18.15244936943054</v>
-      </c>
-      <c r="M4" t="n">
-        <v>18.09093382358551</v>
-      </c>
-      <c r="N4" t="n">
-        <v>335.1931339263916</v>
+        <v>340.4738705396652</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>49.80953261852265</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50.48238792419433</v>
+      </c>
+      <c r="C5" t="n">
+        <v>846.1178794384002</v>
       </c>
     </row>
   </sheetData>
